--- a/2022/ginell_2022/LCD_analysis/tables/idr_background/charge_pLCD_table_idr_background.xlsx
+++ b/2022/ginell_2022/LCD_analysis/tables/idr_background/charge_pLCD_table_idr_background.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Dropbox/WASHU/Holehouse/public_data/github_repo/2022/ginell_2022/LCD_analysis/tables/idr_background/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A1CC0-7CA2-B146-BD69-A83B7265FBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D791FB-7AE4-E848-877A-9408434A0A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6500" yWindow="-19960" windowWidth="27240" windowHeight="16440" xr2:uid="{13E4DC11-B51A-824A-8C59-EA233E627F9F}"/>
   </bookViews>
@@ -268,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +287,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,48 +317,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -372,14 +341,29 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -390,14 +374,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23215FA-80CD-7D4D-AAB1-93BCD6E09B37}">
-  <dimension ref="B4:K17"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:O22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,367 +707,562 @@
     <col min="3" max="3" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="7" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="12">
         <v>162</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="12">
         <v>9</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>1.03</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="12">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="13">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="13">
         <v>6.2E-4</v>
       </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="2:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="1" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="12">
         <v>162</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="12">
         <v>9</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="12">
         <v>1.03</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="12">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="13">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="13">
         <v>4.4299999999999998E-4</v>
       </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="1" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="12">
         <v>205</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="12">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="12">
         <v>1.31</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="12">
         <v>8.4</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="13">
         <v>1.24E-7</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="13">
         <v>1.37E-4</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="1" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="12">
         <v>201</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="12">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="12">
         <v>1.28</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="12">
         <v>7.79</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="13">
         <v>9.2500000000000004E-7</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="13">
         <v>5.1199999999999998E-4</v>
       </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="2:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="12">
         <v>281</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="12">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="12">
         <v>1.79</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="12">
         <v>6.13</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="13">
         <v>2.4600000000000002E-6</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="13">
         <v>5.4299999999999997E-4</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="1" t="s">
+      <c r="K10" s="19"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="12">
         <v>427</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="12">
         <v>12</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="12">
         <v>2.73</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="13">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="13">
         <v>4.0600000000000002E-3</v>
       </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>31</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>0.2</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>25.25</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="8">
         <v>3.0199999999999999E-6</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="8">
         <v>3.0699999999999998E-4</v>
       </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>47</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>6</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>0.3</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="7">
         <v>19.989999999999998</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="8">
         <v>1.02E-6</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="8">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>371</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>15</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>2.37</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>6.33</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="8">
         <v>2.0800000000000001E-8</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="8">
         <v>5.2900000000000002E-6</v>
       </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-      <c r="C15" s="3" t="s">
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>561</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>15</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>3.58</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="8">
         <v>3.4400000000000001E-6</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="8">
         <v>2.92E-4</v>
       </c>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:11" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="9">
         <v>553</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="9">
         <v>16</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="9">
         <v>3.53</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="9">
         <v>4.53</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="10">
         <v>5.7100000000000002E-7</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="10">
         <v>3.1100000000000002E-4</v>
       </c>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1106,8 +1284,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="16.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="68" x14ac:dyDescent="0.2">
